--- a/public/template/用户导出模板.xlsx
+++ b/public/template/用户导出模板.xlsx
@@ -10,11 +10,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
